--- a/teaching/traditional_assets/database/data/togo/togo_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/togo/togo_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0366</v>
+        <v>-0.0538</v>
       </c>
       <c r="E2">
-        <v>0.0704</v>
+        <v>-0.527</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>219</v>
+        <v>7.7</v>
       </c>
       <c r="L2">
-        <v>0.1468615879828326</v>
+        <v>0.005268559698939446</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2079.1</v>
+        <v>2680.1</v>
       </c>
       <c r="V2">
-        <v>4.709173272933183</v>
+        <v>6.930695629687096</v>
       </c>
       <c r="W2">
-        <v>0.1267507813404329</v>
+        <v>0.005322090129941941</v>
       </c>
       <c r="X2">
-        <v>0.2241137674854953</v>
+        <v>0.2429841320787574</v>
       </c>
       <c r="Y2">
-        <v>-0.09736298614506242</v>
+        <v>-0.2376620419488154</v>
       </c>
       <c r="Z2">
-        <v>1.003701958672679</v>
+        <v>0.9664087813264566</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.1077967966233195</v>
+        <v>0.1169441081409295</v>
       </c>
       <c r="AC2">
-        <v>-0.1077967966233195</v>
+        <v>-0.1169441081409295</v>
       </c>
       <c r="AD2">
-        <v>2213.2</v>
+        <v>1845.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2213.2</v>
+        <v>1845.6</v>
       </c>
       <c r="AG2">
-        <v>134.0999999999999</v>
+        <v>-834.5</v>
       </c>
       <c r="AH2">
-        <v>0.833691189211587</v>
+        <v>0.8267705953500875</v>
       </c>
       <c r="AI2">
-        <v>0.5482832086409354</v>
+        <v>0.5012084838280422</v>
       </c>
       <c r="AJ2">
-        <v>0.2329742876997914</v>
+        <v>1.863555158552925</v>
       </c>
       <c r="AK2">
-        <v>0.06850574712643674</v>
+        <v>-0.8326681301137497</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0366</v>
+        <v>-0.0538</v>
       </c>
       <c r="E3">
-        <v>0.0704</v>
+        <v>-0.527</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>219</v>
+        <v>7.7</v>
       </c>
       <c r="L3">
-        <v>0.1468615879828326</v>
+        <v>0.005268559698939446</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,55 +755,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2079.1</v>
+        <v>2680.1</v>
       </c>
       <c r="V3">
-        <v>4.709173272933183</v>
+        <v>6.930695629687096</v>
       </c>
       <c r="W3">
-        <v>0.1267507813404329</v>
+        <v>0.005322090129941941</v>
       </c>
       <c r="X3">
-        <v>0.2241137674854953</v>
+        <v>0.2429841320787574</v>
       </c>
       <c r="Y3">
-        <v>-0.09736298614506242</v>
+        <v>-0.2376620419488154</v>
       </c>
       <c r="Z3">
-        <v>1.003701958672679</v>
+        <v>0.9664087813264566</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1077967966233195</v>
+        <v>0.1169441081409295</v>
       </c>
       <c r="AC3">
-        <v>-0.1077967966233195</v>
+        <v>-0.1169441081409295</v>
       </c>
       <c r="AD3">
-        <v>2213.2</v>
+        <v>1845.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2213.2</v>
+        <v>1845.6</v>
       </c>
       <c r="AG3">
-        <v>134.0999999999999</v>
+        <v>-834.5</v>
       </c>
       <c r="AH3">
-        <v>0.833691189211587</v>
+        <v>0.8267705953500875</v>
       </c>
       <c r="AI3">
-        <v>0.5482832086409354</v>
+        <v>0.5012084838280422</v>
       </c>
       <c r="AJ3">
-        <v>0.2329742876997914</v>
+        <v>1.863555158552925</v>
       </c>
       <c r="AK3">
-        <v>0.06850574712643674</v>
+        <v>-0.8326681301137497</v>
       </c>
       <c r="AL3">
         <v>0</v>
